--- a/SHArC/.templates/CONDITION_sharea_template_si.xlsx
+++ b/SHArC/.templates/CONDITION_sharea_template_si.xlsx
@@ -30,19 +30,7 @@
     <t>Associated velocity raster</t>
   </si>
   <si>
-    <t>(filename)</t>
-  </si>
-  <si>
-    <t>(% of a year - cum.)</t>
-  </si>
-  <si>
     <t>Exceedance duration</t>
-  </si>
-  <si>
-    <t>(m³/s)</t>
-  </si>
-  <si>
-    <t>(m²/year)</t>
   </si>
   <si>
     <t>Usable Area (UA)</t>
@@ -51,22 +39,35 @@
     <t>relative UA</t>
   </si>
   <si>
+    <t>SHArea</t>
+  </si>
+  <si>
+    <t>(filename)</t>
+  </si>
+  <si>
+    <t>(% of a year - cum.)</t>
+  </si>
+  <si>
+    <t>(m³/s)</t>
+  </si>
+  <si>
     <t>(m² per discharge)</t>
   </si>
   <si>
     <t>(m²·%exceed.)</t>
   </si>
   <si>
-    <t>SHArea</t>
+    <t>(m²/year)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="00000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -214,13 +215,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -348,7 +349,7 @@
             <c:numRef>
               <c:f>summary!$E$4:$E$200</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="197"/>
               </c:numCache>
             </c:numRef>
@@ -365,7 +366,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B150-4C74-866A-CF7B735459BA}"/>
+              <c16:uniqueId val="{00000000-50AF-40F9-AB16-7EEFB0D85B54}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -438,7 +439,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -529,7 +530,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="1.7326430356145572E-2"/>
-              <c:y val="0.38317827479801386"/>
+              <c:y val="0.38317827479801392"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -591,20 +592,361 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Q-UA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exceedance duration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$B$4:$B$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="197"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$F$4:$F$200</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="197"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15EA-4C08-B6B1-49DA71F87D16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1334583648"/>
+        <c:axId val="1334581984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1334583648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" strike="noStrike" baseline="0"/>
+                  <a:t>Discharge (m³/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1334581984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1334581984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Usable Area (m²)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.7326430356145572E-2"/>
+              <c:y val="0.38317827479801392"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1334583648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>61911</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -618,6 +960,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>90489</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -892,7 +1264,7 @@
   <dimension ref="B1:K200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -902,14 +1274,14 @@
     <col min="3" max="3" width="24.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" style="9" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="14" customWidth="1"/>
     <col min="8" max="8" width="2.28515625" style="6" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" style="6" customWidth="1"/>
     <col min="10" max="10" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="6"/>
+    <col min="11" max="11" width="9.140625" style="14" customWidth="1"/>
+    <col min="12" max="16" width="9.140625" style="6" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -923,38 +1295,38 @@
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>9</v>
-      </c>
       <c r="I2" s="10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J2" s="11">
         <f>SUM(G4:G200)</f>
         <v>0</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
@@ -964,1229 +1336,1483 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="str">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15" t="str">
         <f>IF(NOT(ISBLANK(F4)),E4/100*F4, "")</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="str">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15" t="str">
         <f t="shared" ref="G5:G36" si="0">IF(NOT(ISBLANK(F5)),(E5-E4)/100*F5,"")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
       <c r="G30" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
       <c r="G31" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
       <c r="G32" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
       <c r="G33" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
       <c r="G34" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
       <c r="G35" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
       <c r="G36" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
       <c r="G37" s="15" t="str">
         <f t="shared" ref="G37:G68" si="1">IF(NOT(ISBLANK(F37)),(E37-E36)/100*F37,"")</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
       <c r="G38" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
       <c r="G39" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
       <c r="G40" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
       <c r="G41" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
       <c r="G42" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
       <c r="G43" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
       <c r="G44" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
       <c r="G45" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
       <c r="G46" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
       <c r="G47" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
       <c r="G48" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
       <c r="G49" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
       <c r="G50" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
       <c r="G51" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
       <c r="G52" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
       <c r="G53" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
       <c r="G54" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
       <c r="G55" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
       <c r="G56" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
       <c r="G57" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
       <c r="G58" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
       <c r="G59" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
       <c r="G60" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
       <c r="G61" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
       <c r="G62" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
       <c r="G63" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G64" s="15" t="str">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G64" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G65" s="15" t="str">
+      <c r="G65" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G66" s="15" t="str">
+      <c r="G66" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G67" s="15" t="str">
+      <c r="G67" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G68" s="15" t="str">
+      <c r="G68" s="14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G69" s="15" t="str">
+      <c r="G69" s="14" t="str">
         <f t="shared" ref="G69:G100" si="2">IF(NOT(ISBLANK(F69)),(E69-E68)/100*F69,"")</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G70" s="15" t="str">
+      <c r="G70" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G71" s="15" t="str">
+      <c r="G71" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G72" s="15" t="str">
+      <c r="G72" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G73" s="15" t="str">
+      <c r="G73" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G74" s="15" t="str">
+      <c r="G74" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G75" s="15" t="str">
+      <c r="G75" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G76" s="15" t="str">
+      <c r="G76" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G77" s="15" t="str">
+      <c r="G77" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G78" s="15" t="str">
+      <c r="G78" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G79" s="15" t="str">
+      <c r="G79" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G80" s="15" t="str">
+      <c r="G80" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G81" s="15" t="str">
+      <c r="G81" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G82" s="15" t="str">
+      <c r="G82" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G83" s="15" t="str">
+      <c r="G83" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G84" s="15" t="str">
+      <c r="G84" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G85" s="15" t="str">
+      <c r="G85" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G86" s="15" t="str">
+      <c r="G86" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G87" s="15" t="str">
+      <c r="G87" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G88" s="15" t="str">
+      <c r="G88" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G89" s="15" t="str">
+      <c r="G89" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G90" s="15" t="str">
+      <c r="G90" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G91" s="15" t="str">
+      <c r="G91" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G92" s="15" t="str">
+      <c r="G92" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G93" s="15" t="str">
+      <c r="G93" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G94" s="15" t="str">
+      <c r="G94" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G95" s="15" t="str">
+      <c r="G95" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G96" s="15" t="str">
+      <c r="G96" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G97" s="15" t="str">
+      <c r="G97" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G98" s="15" t="str">
+      <c r="G98" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G99" s="15" t="str">
+      <c r="G99" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G100" s="15" t="str">
+      <c r="G100" s="14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G101" s="15" t="str">
+      <c r="G101" s="14" t="str">
         <f t="shared" ref="G101:G132" si="3">IF(NOT(ISBLANK(F101)),(E101-E100)/100*F101,"")</f>
         <v/>
       </c>
     </row>
     <row r="102" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G102" s="15" t="str">
+      <c r="G102" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G103" s="15" t="str">
+      <c r="G103" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G104" s="15" t="str">
+      <c r="G104" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G105" s="15" t="str">
+      <c r="G105" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G106" s="15" t="str">
+      <c r="G106" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G107" s="15" t="str">
+      <c r="G107" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G108" s="15" t="str">
+      <c r="G108" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G109" s="15" t="str">
+      <c r="G109" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G110" s="15" t="str">
+      <c r="G110" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G111" s="15" t="str">
+      <c r="G111" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G112" s="15" t="str">
+      <c r="G112" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G113" s="15" t="str">
+      <c r="G113" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G114" s="15" t="str">
+      <c r="G114" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G115" s="15" t="str">
+      <c r="G115" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G116" s="15" t="str">
+      <c r="G116" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G117" s="15" t="str">
+      <c r="G117" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G118" s="15" t="str">
+      <c r="G118" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G119" s="15" t="str">
+      <c r="G119" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G120" s="15" t="str">
+      <c r="G120" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G121" s="15" t="str">
+      <c r="G121" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G122" s="15" t="str">
+      <c r="G122" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G123" s="15" t="str">
+      <c r="G123" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G124" s="15" t="str">
+      <c r="G124" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G125" s="15" t="str">
+      <c r="G125" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G126" s="15" t="str">
+      <c r="G126" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G127" s="15" t="str">
+      <c r="G127" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G128" s="15" t="str">
+      <c r="G128" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G129" s="15" t="str">
+      <c r="G129" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G130" s="15" t="str">
+      <c r="G130" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G131" s="15" t="str">
+      <c r="G131" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G132" s="15" t="str">
+      <c r="G132" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G133" s="15" t="str">
+      <c r="G133" s="14" t="str">
         <f t="shared" ref="G133:G164" si="4">IF(NOT(ISBLANK(F133)),(E133-E132)/100*F133,"")</f>
         <v/>
       </c>
     </row>
     <row r="134" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G134" s="15" t="str">
+      <c r="G134" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G135" s="15" t="str">
+      <c r="G135" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G136" s="15" t="str">
+      <c r="G136" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G137" s="15" t="str">
+      <c r="G137" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G138" s="15" t="str">
+      <c r="G138" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G139" s="15" t="str">
+      <c r="G139" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G140" s="15" t="str">
+      <c r="G140" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G141" s="15" t="str">
+      <c r="G141" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G142" s="15" t="str">
+      <c r="G142" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G143" s="15" t="str">
+      <c r="G143" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G144" s="15" t="str">
+      <c r="G144" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G145" s="15" t="str">
+      <c r="G145" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G146" s="15" t="str">
+      <c r="G146" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G147" s="15" t="str">
+      <c r="G147" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G148" s="15" t="str">
+      <c r="G148" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G149" s="15" t="str">
+      <c r="G149" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G150" s="15" t="str">
+      <c r="G150" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G151" s="15" t="str">
+      <c r="G151" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G152" s="15" t="str">
+      <c r="G152" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G153" s="15" t="str">
+      <c r="G153" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G154" s="15" t="str">
+      <c r="G154" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G155" s="15" t="str">
+      <c r="G155" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G156" s="15" t="str">
+      <c r="G156" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G157" s="15" t="str">
+      <c r="G157" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G158" s="15" t="str">
+      <c r="G158" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G159" s="15" t="str">
+      <c r="G159" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G160" s="15" t="str">
+      <c r="G160" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G161" s="15" t="str">
+      <c r="G161" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G162" s="15" t="str">
+      <c r="G162" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G163" s="15" t="str">
+      <c r="G163" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G164" s="15" t="str">
+      <c r="G164" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G165" s="15" t="str">
+      <c r="G165" s="14" t="str">
         <f t="shared" ref="G165:G196" si="5">IF(NOT(ISBLANK(F165)),(E165-E164)/100*F165,"")</f>
         <v/>
       </c>
     </row>
     <row r="166" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G166" s="15" t="str">
+      <c r="G166" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G167" s="15" t="str">
+      <c r="G167" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G168" s="15" t="str">
+      <c r="G168" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G169" s="15" t="str">
+      <c r="G169" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G170" s="15" t="str">
+      <c r="G170" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G171" s="15" t="str">
+      <c r="G171" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G172" s="15" t="str">
+      <c r="G172" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G173" s="15" t="str">
+      <c r="G173" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G174" s="15" t="str">
+      <c r="G174" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G175" s="15" t="str">
+      <c r="G175" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G176" s="15" t="str">
+      <c r="G176" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G177" s="15" t="str">
+      <c r="G177" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G178" s="15" t="str">
+      <c r="G178" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G179" s="15" t="str">
+      <c r="G179" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G180" s="15" t="str">
+      <c r="G180" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G181" s="15" t="str">
+      <c r="G181" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G182" s="15" t="str">
+      <c r="G182" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G183" s="15" t="str">
+      <c r="G183" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G184" s="15" t="str">
+      <c r="G184" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G185" s="15" t="str">
+      <c r="G185" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G186" s="15" t="str">
+      <c r="G186" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G187" s="15" t="str">
+      <c r="G187" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G188" s="15" t="str">
+      <c r="G188" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G189" s="15" t="str">
+      <c r="G189" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G190" s="15" t="str">
+      <c r="G190" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G191" s="15" t="str">
+      <c r="G191" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G192" s="15" t="str">
+      <c r="G192" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G193" s="15" t="str">
+      <c r="G193" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G194" s="15" t="str">
+      <c r="G194" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G195" s="15" t="str">
+      <c r="G195" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G196" s="15" t="str">
+      <c r="G196" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G197" s="15" t="str">
+      <c r="G197" s="14" t="str">
         <f t="shared" ref="G197:G200" si="6">IF(NOT(ISBLANK(F197)),(E197-E196)/100*F197,"")</f>
         <v/>
       </c>
     </row>
     <row r="198" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G198" s="15" t="str">
+      <c r="G198" s="14" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G199" s="15" t="str">
+      <c r="G199" s="14" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G200" s="15" t="str">
+      <c r="G200" s="14" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>

--- a/SHArC/.templates/CONDITION_sharea_template_si.xlsx
+++ b/SHArC/.templates/CONDITION_sharea_template_si.xlsx
@@ -57,7 +57,7 @@
     <t>(m²·%exceed.)</t>
   </si>
   <si>
-    <t>(m²/year)</t>
+    <t>(m²/season)</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1264,7 @@
   <dimension ref="B1:K200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1279,7 +1279,7 @@
     <col min="8" max="8" width="2.28515625" style="6" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" style="6" customWidth="1"/>
     <col min="10" max="10" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="14" customWidth="1"/>
     <col min="12" max="16" width="9.140625" style="6" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="6"/>
   </cols>

--- a/SHArC/.templates/CONDITION_sharea_template_si.xlsx
+++ b/SHArC/.templates/CONDITION_sharea_template_si.xlsx
@@ -33,12 +33,6 @@
     <t>Exceedance duration</t>
   </si>
   <si>
-    <t>Usable Area (UA)</t>
-  </si>
-  <si>
-    <t>relative UA</t>
-  </si>
-  <si>
     <t>SHArea</t>
   </si>
   <si>
@@ -58,6 +52,12 @@
   </si>
   <si>
     <t>(m²/season)</t>
+  </si>
+  <si>
+    <t>Calculated Area</t>
+  </si>
+  <si>
+    <t>relative Calculated Area</t>
   </si>
 </sst>
 </file>
@@ -861,7 +861,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
-                  <a:t>Usable Area (m²)</a:t>
+                  <a:t>Calculated Area (m²)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1264,7 +1264,7 @@
   <dimension ref="B1:K200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1299,40 +1299,40 @@
         <v>3</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>6</v>
       </c>
       <c r="J2" s="11">
         <f>SUM(G4:G200)</f>
         <v>0</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
